--- a/my_data.xlsx
+++ b/my_data.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hosgl\PycharmProjects\courseProgMethods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA76F3A1-E255-4246-8C05-242B25FF26FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD596B4-EA84-4450-BBFE-871C3C1AF89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Edges" sheetId="1" r:id="rId1"/>
     <sheet name="Nodes" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Edges!$A$1:$B$250</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Edges!$A$1:$B$246</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,13 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="308">
-  <si>
-    <t>ЦТП</t>
-  </si>
-  <si>
-    <t>в сторону ул. Тургенева</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="302">
   <si>
     <t>НО-1</t>
   </si>
@@ -319,12 +313,6 @@
     <t>TK-I-85</t>
   </si>
   <si>
-    <t>Кем. ТЭЦ</t>
-  </si>
-  <si>
-    <t>НО-П-З</t>
-  </si>
-  <si>
     <t>НО-Ш-З</t>
   </si>
   <si>
@@ -940,16 +928,10 @@
     <t>ул. Инициативная, 23а</t>
   </si>
   <si>
-    <t>к ул. Шубина, ул. Красноярская</t>
-  </si>
-  <si>
     <t>first_node</t>
   </si>
   <si>
     <t>second_node</t>
-  </si>
-  <si>
-    <t>source_node</t>
   </si>
   <si>
     <t>weighted_nodes</t>
@@ -1270,10 +1252,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B250"/>
+  <dimension ref="A1:B246"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A217" zoomScale="115" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B248" sqref="B248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1284,10 +1266,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1300,26 +1282,26 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1327,47 +1309,47 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1420,18 +1402,18 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
         <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
         <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1444,26 +1426,26 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
         <v>27</v>
-      </c>
-      <c r="B21" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
         <v>28</v>
-      </c>
-      <c r="B22" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
         <v>29</v>
-      </c>
-      <c r="B23" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1476,18 +1458,18 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
         <v>32</v>
-      </c>
-      <c r="B25" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1500,10 +1482,10 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1540,66 +1522,66 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" t="s">
         <v>43</v>
-      </c>
-      <c r="B33" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
         <v>44</v>
-      </c>
-      <c r="B34" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" t="s">
         <v>45</v>
-      </c>
-      <c r="B35" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" t="s">
         <v>46</v>
-      </c>
-      <c r="B36" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" t="s">
         <v>47</v>
-      </c>
-      <c r="B37" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" t="s">
         <v>48</v>
-      </c>
-      <c r="B38" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" t="s">
         <v>49</v>
-      </c>
-      <c r="B39" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" t="s">
         <v>50</v>
-      </c>
-      <c r="B40" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1612,42 +1594,42 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" t="s">
         <v>53</v>
-      </c>
-      <c r="B42" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" t="s">
         <v>54</v>
-      </c>
-      <c r="B43" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" t="s">
         <v>55</v>
-      </c>
-      <c r="B44" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" t="s">
         <v>56</v>
-      </c>
-      <c r="B45" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" t="s">
         <v>57</v>
-      </c>
-      <c r="B46" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1668,58 +1650,58 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" t="s">
         <v>62</v>
-      </c>
-      <c r="B49" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" t="s">
         <v>63</v>
-      </c>
-      <c r="B50" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" t="s">
         <v>64</v>
-      </c>
-      <c r="B51" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" t="s">
         <v>65</v>
-      </c>
-      <c r="B52" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" t="s">
         <v>66</v>
-      </c>
-      <c r="B53" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" t="s">
         <v>67</v>
-      </c>
-      <c r="B54" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" t="s">
         <v>68</v>
-      </c>
-      <c r="B55" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1772,15 +1754,15 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>79</v>
+      </c>
+      <c r="B62" t="s">
         <v>81</v>
-      </c>
-      <c r="B62" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B63" t="s">
         <v>83</v>
@@ -1820,26 +1802,26 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="B68" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B69" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="B70" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1847,159 +1829,159 @@
         <v>95</v>
       </c>
       <c r="B71" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B72" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="B73" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="B74" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="B75" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="B76" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="B77" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="B78" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>98</v>
+      </c>
+      <c r="B79" t="s">
         <v>103</v>
-      </c>
-      <c r="B79" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>103</v>
+      </c>
+      <c r="B80" t="s">
         <v>104</v>
-      </c>
-      <c r="B80" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B81" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B82" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>106</v>
+      </c>
+      <c r="B83" t="s">
         <v>107</v>
-      </c>
-      <c r="B83" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>107</v>
+      </c>
+      <c r="B84" t="s">
         <v>108</v>
-      </c>
-      <c r="B84" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>108</v>
+      </c>
+      <c r="B85" t="s">
         <v>109</v>
-      </c>
-      <c r="B85" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>109</v>
+      </c>
+      <c r="B86" t="s">
         <v>110</v>
-      </c>
-      <c r="B86" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>110</v>
+      </c>
+      <c r="B87" t="s">
         <v>111</v>
-      </c>
-      <c r="B87" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>111</v>
+      </c>
+      <c r="B88" t="s">
         <v>112</v>
-      </c>
-      <c r="B88" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>112</v>
+      </c>
+      <c r="B89" t="s">
         <v>113</v>
-      </c>
-      <c r="B89" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>113</v>
+      </c>
+      <c r="B90" t="s">
         <v>114</v>
-      </c>
-      <c r="B90" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -2012,362 +1994,362 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" t="s">
         <v>117</v>
-      </c>
-      <c r="B93" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B94" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="B95" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="B96" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>120</v>
+      </c>
+      <c r="B97" t="s">
         <v>121</v>
-      </c>
-      <c r="B97" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B98" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="B99" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B100" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B101" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="B102" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>125</v>
+      </c>
+      <c r="B103" t="s">
         <v>126</v>
-      </c>
-      <c r="B103" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>126</v>
+      </c>
+      <c r="B104" t="s">
         <v>127</v>
-      </c>
-      <c r="B104" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>127</v>
+      </c>
+      <c r="B105" t="s">
         <v>128</v>
-      </c>
-      <c r="B105" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>128</v>
+      </c>
+      <c r="B106" t="s">
         <v>129</v>
-      </c>
-      <c r="B106" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>129</v>
+      </c>
+      <c r="B107" t="s">
         <v>130</v>
-      </c>
-      <c r="B107" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>130</v>
+      </c>
+      <c r="B108" t="s">
         <v>131</v>
-      </c>
-      <c r="B108" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>131</v>
+      </c>
+      <c r="B109" t="s">
         <v>132</v>
-      </c>
-      <c r="B109" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>132</v>
+      </c>
+      <c r="B110" t="s">
         <v>133</v>
-      </c>
-      <c r="B110" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>133</v>
+      </c>
+      <c r="B111" t="s">
         <v>134</v>
-      </c>
-      <c r="B111" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>134</v>
+      </c>
+      <c r="B112" t="s">
         <v>135</v>
-      </c>
-      <c r="B112" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>135</v>
+      </c>
+      <c r="B113" t="s">
         <v>136</v>
-      </c>
-      <c r="B113" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>136</v>
+      </c>
+      <c r="B114" t="s">
         <v>137</v>
-      </c>
-      <c r="B114" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>137</v>
+      </c>
+      <c r="B115" t="s">
         <v>138</v>
-      </c>
-      <c r="B115" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>138</v>
+      </c>
+      <c r="B116" t="s">
         <v>139</v>
-      </c>
-      <c r="B116" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>139</v>
+      </c>
+      <c r="B117" t="s">
         <v>140</v>
-      </c>
-      <c r="B117" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>140</v>
+      </c>
+      <c r="B118" t="s">
         <v>141</v>
-      </c>
-      <c r="B118" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>141</v>
+      </c>
+      <c r="B119" t="s">
         <v>142</v>
-      </c>
-      <c r="B119" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>142</v>
+      </c>
+      <c r="B120" t="s">
         <v>143</v>
-      </c>
-      <c r="B120" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>143</v>
+      </c>
+      <c r="B121" t="s">
         <v>144</v>
-      </c>
-      <c r="B121" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>144</v>
+      </c>
+      <c r="B122" t="s">
         <v>145</v>
-      </c>
-      <c r="B122" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>145</v>
+      </c>
+      <c r="B123" t="s">
         <v>146</v>
-      </c>
-      <c r="B123" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>146</v>
+      </c>
+      <c r="B124" t="s">
         <v>147</v>
-      </c>
-      <c r="B124" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>147</v>
+      </c>
+      <c r="B125" t="s">
         <v>148</v>
-      </c>
-      <c r="B125" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>148</v>
+      </c>
+      <c r="B126" t="s">
         <v>149</v>
-      </c>
-      <c r="B126" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>149</v>
+      </c>
+      <c r="B127" t="s">
         <v>150</v>
-      </c>
-      <c r="B127" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>150</v>
+      </c>
+      <c r="B128" t="s">
         <v>151</v>
-      </c>
-      <c r="B128" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>151</v>
+      </c>
+      <c r="B129" t="s">
         <v>152</v>
-      </c>
-      <c r="B129" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>152</v>
+      </c>
+      <c r="B130" t="s">
         <v>153</v>
-      </c>
-      <c r="B130" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
+        <v>153</v>
+      </c>
+      <c r="B131" t="s">
         <v>154</v>
-      </c>
-      <c r="B131" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>154</v>
+      </c>
+      <c r="B132" t="s">
         <v>155</v>
-      </c>
-      <c r="B132" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
+        <v>155</v>
+      </c>
+      <c r="B133" t="s">
         <v>156</v>
-      </c>
-      <c r="B133" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
+        <v>156</v>
+      </c>
+      <c r="B134" t="s">
         <v>157</v>
-      </c>
-      <c r="B134" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>157</v>
+      </c>
+      <c r="B135" t="s">
         <v>158</v>
-      </c>
-      <c r="B135" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
+        <v>158</v>
+      </c>
+      <c r="B136" t="s">
         <v>159</v>
-      </c>
-      <c r="B136" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -2396,18 +2378,18 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>163</v>
+      </c>
+      <c r="B140" t="s">
         <v>164</v>
-      </c>
-      <c r="B140" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>164</v>
+      </c>
+      <c r="B141" t="s">
         <v>165</v>
-      </c>
-      <c r="B141" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -2420,18 +2402,18 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B143" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B144" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -2444,34 +2426,34 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>171</v>
+      </c>
+      <c r="B146" t="s">
         <v>172</v>
-      </c>
-      <c r="B146" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>172</v>
+      </c>
+      <c r="B147" t="s">
         <v>173</v>
-      </c>
-      <c r="B147" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>173</v>
+      </c>
+      <c r="B148" t="s">
         <v>174</v>
-      </c>
-      <c r="B148" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
+        <v>174</v>
+      </c>
+      <c r="B149" t="s">
         <v>175</v>
-      </c>
-      <c r="B149" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -2500,42 +2482,42 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
+        <v>179</v>
+      </c>
+      <c r="B153" t="s">
         <v>180</v>
-      </c>
-      <c r="B153" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>180</v>
+      </c>
+      <c r="B154" t="s">
         <v>181</v>
-      </c>
-      <c r="B154" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>181</v>
+      </c>
+      <c r="B155" t="s">
         <v>182</v>
-      </c>
-      <c r="B155" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>182</v>
+      </c>
+      <c r="B156" t="s">
         <v>183</v>
-      </c>
-      <c r="B156" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>183</v>
+      </c>
+      <c r="B157" t="s">
         <v>184</v>
-      </c>
-      <c r="B157" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -2548,7 +2530,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B159" t="s">
         <v>187</v>
@@ -2556,15 +2538,15 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B160" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B161" t="s">
         <v>190</v>
@@ -2572,15 +2554,15 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B162" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B163" t="s">
         <v>193</v>
@@ -2588,7 +2570,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B164" t="s">
         <v>194</v>
@@ -2604,50 +2586,50 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B166" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B167" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B168" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B169" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B170" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B171" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -2660,42 +2642,42 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>208</v>
+      </c>
+      <c r="B173" t="s">
         <v>209</v>
-      </c>
-      <c r="B173" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>209</v>
+      </c>
+      <c r="B174" t="s">
         <v>210</v>
-      </c>
-      <c r="B174" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>210</v>
+      </c>
+      <c r="B175" t="s">
         <v>211</v>
-      </c>
-      <c r="B175" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>211</v>
+      </c>
+      <c r="B176" t="s">
         <v>212</v>
-      </c>
-      <c r="B176" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>211</v>
+      </c>
+      <c r="B177" t="s">
         <v>213</v>
-      </c>
-      <c r="B177" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -2716,7 +2698,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B180" t="s">
         <v>217</v>
@@ -2724,42 +2706,42 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
+        <v>217</v>
+      </c>
+      <c r="B181" t="s">
         <v>218</v>
-      </c>
-      <c r="B181" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
+        <v>218</v>
+      </c>
+      <c r="B182" t="s">
         <v>219</v>
-      </c>
-      <c r="B182" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>219</v>
+      </c>
+      <c r="B183" t="s">
         <v>220</v>
-      </c>
-      <c r="B183" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
+        <v>220</v>
+      </c>
+      <c r="B184" t="s">
         <v>221</v>
-      </c>
-      <c r="B184" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>221</v>
+      </c>
+      <c r="B185" t="s">
         <v>222</v>
-      </c>
-      <c r="B185" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -2812,10 +2794,10 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
+        <v>230</v>
+      </c>
+      <c r="B192" t="s">
         <v>231</v>
-      </c>
-      <c r="B192" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -2823,15 +2805,15 @@
         <v>232</v>
       </c>
       <c r="B193" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
+        <v>232</v>
+      </c>
+      <c r="B194" t="s">
         <v>233</v>
-      </c>
-      <c r="B194" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -2844,10 +2826,10 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
+        <v>235</v>
+      </c>
+      <c r="B196" t="s">
         <v>236</v>
-      </c>
-      <c r="B196" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -2868,18 +2850,18 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B199" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B200" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -2892,26 +2874,26 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
+        <v>243</v>
+      </c>
+      <c r="B202" t="s">
         <v>244</v>
-      </c>
-      <c r="B202" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="B203" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
+        <v>245</v>
+      </c>
+      <c r="B204" t="s">
         <v>246</v>
-      </c>
-      <c r="B204" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -2924,55 +2906,55 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="B206" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B207" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B208" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B209" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B210" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>257</v>
+        <v>186</v>
       </c>
       <c r="B211" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>259</v>
+        <v>186</v>
       </c>
       <c r="B212" t="s">
         <v>260</v>
@@ -2980,119 +2962,119 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
+        <v>186</v>
+      </c>
+      <c r="B213" t="s">
         <v>261</v>
-      </c>
-      <c r="B213" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B214" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B215" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B216" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B217" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B218" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B219" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B220" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B221" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B222" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B223" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B224" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B225" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B226" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>190</v>
+        <v>275</v>
       </c>
       <c r="B227" t="s">
         <v>276</v>
@@ -3100,7 +3082,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>190</v>
+        <v>31</v>
       </c>
       <c r="B228" t="s">
         <v>277</v>
@@ -3108,7 +3090,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>190</v>
+        <v>31</v>
       </c>
       <c r="B229" t="s">
         <v>278</v>
@@ -3124,82 +3106,82 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>33</v>
+        <v>281</v>
       </c>
       <c r="B231" t="s">
-        <v>281</v>
+        <v>60</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>33</v>
+        <v>282</v>
       </c>
       <c r="B232" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>283</v>
+        <v>159</v>
       </c>
       <c r="B233" t="s">
-        <v>284</v>
+        <v>160</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>285</v>
+        <v>175</v>
       </c>
       <c r="B234" t="s">
-        <v>62</v>
+        <v>284</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>286</v>
+        <v>184</v>
       </c>
       <c r="B235" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="B236" t="s">
-        <v>164</v>
+        <v>88</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>179</v>
+        <v>284</v>
       </c>
       <c r="B237" t="s">
-        <v>288</v>
+        <v>176</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>188</v>
+        <v>286</v>
       </c>
       <c r="B238" t="s">
-        <v>289</v>
+        <v>200</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>190</v>
+        <v>287</v>
       </c>
       <c r="B239" t="s">
-        <v>90</v>
+        <v>288</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B240" t="s">
-        <v>180</v>
+        <v>289</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -3207,12 +3189,12 @@
         <v>290</v>
       </c>
       <c r="B241" t="s">
-        <v>204</v>
+        <v>291</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B242" t="s">
         <v>292</v>
@@ -3220,70 +3202,38 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B243" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B244" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B245" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>297</v>
+        <v>64</v>
       </c>
       <c r="B246" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>299</v>
-      </c>
-      <c r="B247" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>301</v>
-      </c>
-      <c r="B248" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>0</v>
-      </c>
-      <c r="B249" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>66</v>
-      </c>
-      <c r="B250" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B250" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:B246" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3291,9 +3241,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E21D01C-9876-4D06-B4E3-910DFDDF6C77}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3301,100 +3253,94 @@
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>273</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/my_data.xlsx
+++ b/my_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20363"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hosgl\PycharmProjects\courseProgMethods\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\courseProgMethods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD596B4-EA84-4450-BBFE-871C3C1AF89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C37AB27-878D-4C2B-A348-ED0699F31455}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Edges" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="308">
   <si>
     <t>НО-1</t>
   </si>
@@ -935,6 +935,24 @@
   </si>
   <si>
     <t>weighted_nodes</t>
+  </si>
+  <si>
+    <t>ЦТП</t>
+  </si>
+  <si>
+    <t>в сторону ул. Тургенева</t>
+  </si>
+  <si>
+    <t>Кем. ТЭЦ</t>
+  </si>
+  <si>
+    <t>НО-П-З</t>
+  </si>
+  <si>
+    <t>до врезки</t>
+  </si>
+  <si>
+    <t>к ул. Шубина, ул. Красноярская</t>
   </si>
 </sst>
 </file>
@@ -1252,19 +1270,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B246"/>
+  <dimension ref="A1:B249"/>
   <sheetViews>
-    <sheetView topLeftCell="A217" zoomScale="115" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B248" sqref="B248"/>
+    <sheetView tabSelected="1" topLeftCell="A222" zoomScale="115" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B234" sqref="B234"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>299</v>
       </c>
@@ -1272,1964 +1290,1988 @@
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>27</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>30</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>18</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>20</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>33</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>35</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>37</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>39</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>41</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>42</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>43</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>44</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>45</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>46</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>47</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>48</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>49</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>51</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>52</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>53</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>54</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>55</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>56</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>58</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>60</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>61</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>62</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>63</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>64</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>65</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>66</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>67</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>69</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>71</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>73</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>75</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>77</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>79</v>
-      </c>
-      <c r="B61" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>79</v>
       </c>
       <c r="B62" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>82</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B64" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>84</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>86</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>88</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>90</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>24</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>32</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>93</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>304</v>
+      </c>
+      <c r="B72" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>304</v>
+      </c>
+      <c r="B73" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>95</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B74" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>97</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B75" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>34</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B76" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>36</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B77" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>38</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B78" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>99</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B79" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>100</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B80" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>102</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B81" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>98</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B82" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>103</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B83" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>104</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B84" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>105</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B85" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>106</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B86" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>107</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B87" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>108</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B88" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>109</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B89" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>110</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B90" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
         <v>111</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B91" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>112</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B92" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
         <v>113</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B93" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
         <v>115</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B94" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>94</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B95" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
         <v>94</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B96" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>117</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B97" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>118</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B98" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>119</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B99" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>120</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B100" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>121</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B101" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>68</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B102" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>122</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B103" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
         <v>123</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B104" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
         <v>124</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B105" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
         <v>125</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B106" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
         <v>126</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B107" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
         <v>127</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B108" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
         <v>128</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B109" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
         <v>129</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B110" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
         <v>130</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B111" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
         <v>131</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B112" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
         <v>132</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B113" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
         <v>133</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B114" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
         <v>134</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B115" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
         <v>135</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B116" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
         <v>136</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B117" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
         <v>137</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B118" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
         <v>138</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B119" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
         <v>139</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B120" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
         <v>140</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B121" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
         <v>141</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B122" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
         <v>142</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B123" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
         <v>143</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B124" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
         <v>144</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B125" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
         <v>145</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B126" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
         <v>146</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B127" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
         <v>147</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B128" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
         <v>148</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B129" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
         <v>149</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B130" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
         <v>150</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B131" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
         <v>151</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B132" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
         <v>152</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B133" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
         <v>153</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B134" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
         <v>154</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B135" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
         <v>155</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B136" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
         <v>156</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B137" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
         <v>157</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B138" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
         <v>158</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B139" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
         <v>160</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B140" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
         <v>161</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B141" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
         <v>162</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B142" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
         <v>163</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B143" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
         <v>164</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B144" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
         <v>166</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B145" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
         <v>168</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B146" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
         <v>169</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B147" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
         <v>170</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B148" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
         <v>171</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B149" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
         <v>172</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B150" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
         <v>173</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B151" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
         <v>174</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B152" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
         <v>176</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B153" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
         <v>177</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B154" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
         <v>178</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B155" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
         <v>179</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B156" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
         <v>180</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B157" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
         <v>181</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B158" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
         <v>182</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B159" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
         <v>183</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B160" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
         <v>185</v>
       </c>
-      <c r="B158" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="B161" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
         <v>185</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B162" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
         <v>188</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B163" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
         <v>188</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B164" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
         <v>191</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B165" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
         <v>191</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B166" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
         <v>191</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B167" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
         <v>195</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B168" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
         <v>197</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B169" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
         <v>199</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B170" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
         <v>201</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B171" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
         <v>203</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B172" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
         <v>205</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B173" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
         <v>206</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B174" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
         <v>207</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B175" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
         <v>208</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B176" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
         <v>209</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B177" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
         <v>210</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B178" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
         <v>211</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B179" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
         <v>211</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B180" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
         <v>214</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B181" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
         <v>215</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B182" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
         <v>216</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B183" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
         <v>217</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B184" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
         <v>218</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B185" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
         <v>219</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B186" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
         <v>220</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B187" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
         <v>221</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B188" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
         <v>223</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B189" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
         <v>224</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B190" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
         <v>225</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B191" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
         <v>227</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B192" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
         <v>228</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B193" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
         <v>229</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B194" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
         <v>230</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B195" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
         <v>232</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B196" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
         <v>232</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B197" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
         <v>234</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B198" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
         <v>235</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B199" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
         <v>236</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B200" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
         <v>238</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B201" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
         <v>240</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B202" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
         <v>241</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B203" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
         <v>242</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B204" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
         <v>243</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B205" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
         <v>226</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B206" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
         <v>245</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B207" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
         <v>247</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B208" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
         <v>249</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B209" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
         <v>251</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B210" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
         <v>253</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B211" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
         <v>255</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B212" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
         <v>257</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B213" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>186</v>
-      </c>
-      <c r="B211" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>186</v>
-      </c>
-      <c r="B212" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>186</v>
-      </c>
-      <c r="B213" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>186</v>
       </c>
       <c r="B214" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>186</v>
       </c>
       <c r="B215" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>186</v>
       </c>
       <c r="B216" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>186</v>
       </c>
       <c r="B217" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>186</v>
       </c>
       <c r="B218" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>186</v>
       </c>
       <c r="B219" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>186</v>
       </c>
       <c r="B220" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>186</v>
       </c>
       <c r="B221" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>186</v>
       </c>
       <c r="B222" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>186</v>
       </c>
       <c r="B223" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>186</v>
       </c>
       <c r="B224" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>186</v>
       </c>
       <c r="B225" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>186</v>
       </c>
       <c r="B226" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>186</v>
+      </c>
+      <c r="B227" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>186</v>
+      </c>
+      <c r="B228" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>186</v>
+      </c>
+      <c r="B229" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
         <v>275</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B230" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
         <v>31</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B231" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
         <v>31</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B232" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
         <v>279</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B233" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
         <v>281</v>
       </c>
-      <c r="B231" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
+      <c r="B234" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
         <v>282</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B235" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
         <v>159</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B236" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
         <v>175</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B237" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
         <v>184</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B238" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
         <v>186</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B239" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
         <v>284</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B240" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
         <v>286</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B241" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
         <v>287</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B242" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
         <v>287</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B243" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
         <v>290</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B244" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
         <v>290</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B245" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
         <v>293</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B246" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
         <v>295</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B247" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
         <v>297</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B248" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>64</v>
-      </c>
-      <c r="B246" t="s">
-        <v>186</v>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>302</v>
+      </c>
+      <c r="B249" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -3243,104 +3285,104 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E21D01C-9876-4D06-B4E3-910DFDDF6C77}">
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/my_data.xlsx
+++ b/my_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20363"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hosgl\PycharmProjects\courseProgMethods\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\courseProgMethods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD596B4-EA84-4450-BBFE-871C3C1AF89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5057CCF3-7963-43AF-8C66-661E7FA8509A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="303">
   <si>
     <t>НО-1</t>
   </si>
@@ -935,6 +935,9 @@
   </si>
   <si>
     <t>weighted_nodes</t>
+  </si>
+  <si>
+    <t>weight</t>
   </si>
 </sst>
 </file>
@@ -1254,17 +1257,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B246"/>
   <sheetViews>
-    <sheetView topLeftCell="A217" zoomScale="115" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B248" sqref="B248"/>
+    <sheetView zoomScale="115" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>299</v>
       </c>
@@ -1272,7 +1275,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1280,7 +1283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1288,7 +1291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1296,7 +1299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1304,7 +1307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1312,7 +1315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1320,7 +1323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1328,7 +1331,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1336,7 +1339,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1344,7 +1347,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1352,7 +1355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1360,7 +1363,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1368,7 +1371,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1376,7 +1379,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1384,7 +1387,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1392,7 +1395,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1400,7 +1403,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1408,7 +1411,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1416,7 +1419,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1424,7 +1427,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1432,7 +1435,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1440,7 +1443,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1448,7 +1451,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1456,7 +1459,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1464,7 +1467,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -1472,7 +1475,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -1480,7 +1483,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1488,7 +1491,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1496,7 +1499,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -1504,7 +1507,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -1512,7 +1515,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -1520,7 +1523,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -1528,7 +1531,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -1536,7 +1539,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -1544,7 +1547,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -1552,7 +1555,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -1560,7 +1563,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -1568,7 +1571,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -1576,7 +1579,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -1584,7 +1587,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -1592,7 +1595,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -1600,7 +1603,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -1608,7 +1611,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -1616,7 +1619,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -1624,7 +1627,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -1632,7 +1635,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -1640,7 +1643,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>60</v>
       </c>
@@ -1648,7 +1651,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>61</v>
       </c>
@@ -1656,7 +1659,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>62</v>
       </c>
@@ -1664,7 +1667,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>63</v>
       </c>
@@ -1672,7 +1675,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>64</v>
       </c>
@@ -1680,7 +1683,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>65</v>
       </c>
@@ -1688,7 +1691,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>66</v>
       </c>
@@ -1696,7 +1699,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>67</v>
       </c>
@@ -1704,7 +1707,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>69</v>
       </c>
@@ -1712,7 +1715,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>71</v>
       </c>
@@ -1720,7 +1723,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>73</v>
       </c>
@@ -1728,7 +1731,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>75</v>
       </c>
@@ -1736,7 +1739,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>77</v>
       </c>
@@ -1744,7 +1747,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>79</v>
       </c>
@@ -1752,7 +1755,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>79</v>
       </c>
@@ -1760,7 +1763,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>82</v>
       </c>
@@ -1768,7 +1771,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>84</v>
       </c>
@@ -1776,7 +1779,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>86</v>
       </c>
@@ -1784,7 +1787,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>88</v>
       </c>
@@ -1792,7 +1795,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>90</v>
       </c>
@@ -1800,7 +1803,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>24</v>
       </c>
@@ -1808,7 +1811,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>32</v>
       </c>
@@ -1816,7 +1819,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>93</v>
       </c>
@@ -1824,7 +1827,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>95</v>
       </c>
@@ -1832,7 +1835,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>97</v>
       </c>
@@ -1840,7 +1843,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>34</v>
       </c>
@@ -1848,7 +1851,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>36</v>
       </c>
@@ -1856,7 +1859,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>38</v>
       </c>
@@ -1864,7 +1867,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>99</v>
       </c>
@@ -1872,7 +1875,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>100</v>
       </c>
@@ -1880,7 +1883,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>102</v>
       </c>
@@ -1888,7 +1891,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>98</v>
       </c>
@@ -1896,7 +1899,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>103</v>
       </c>
@@ -1904,7 +1907,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>104</v>
       </c>
@@ -1912,7 +1915,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>105</v>
       </c>
@@ -1920,7 +1923,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>106</v>
       </c>
@@ -1928,7 +1931,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>107</v>
       </c>
@@ -1936,7 +1939,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>108</v>
       </c>
@@ -1944,7 +1947,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>109</v>
       </c>
@@ -1952,7 +1955,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>110</v>
       </c>
@@ -1960,7 +1963,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>111</v>
       </c>
@@ -1968,7 +1971,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>112</v>
       </c>
@@ -1976,7 +1979,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>113</v>
       </c>
@@ -1984,7 +1987,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>115</v>
       </c>
@@ -1992,7 +1995,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>94</v>
       </c>
@@ -2000,7 +2003,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>94</v>
       </c>
@@ -2008,7 +2011,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>117</v>
       </c>
@@ -2016,7 +2019,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>118</v>
       </c>
@@ -2024,7 +2027,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>119</v>
       </c>
@@ -2032,7 +2035,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>120</v>
       </c>
@@ -2040,7 +2043,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>121</v>
       </c>
@@ -2048,7 +2051,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>68</v>
       </c>
@@ -2056,7 +2059,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>122</v>
       </c>
@@ -2064,7 +2067,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>123</v>
       </c>
@@ -2072,7 +2075,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>124</v>
       </c>
@@ -2080,7 +2083,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>125</v>
       </c>
@@ -2088,7 +2091,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>126</v>
       </c>
@@ -2096,7 +2099,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>127</v>
       </c>
@@ -2104,7 +2107,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>128</v>
       </c>
@@ -2112,7 +2115,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>129</v>
       </c>
@@ -2120,7 +2123,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>130</v>
       </c>
@@ -2128,7 +2131,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>131</v>
       </c>
@@ -2136,7 +2139,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>132</v>
       </c>
@@ -2144,7 +2147,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>133</v>
       </c>
@@ -2152,7 +2155,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>134</v>
       </c>
@@ -2160,7 +2163,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>135</v>
       </c>
@@ -2168,7 +2171,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>136</v>
       </c>
@@ -2176,7 +2179,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>137</v>
       </c>
@@ -2184,7 +2187,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>138</v>
       </c>
@@ -2192,7 +2195,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>139</v>
       </c>
@@ -2200,7 +2203,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>140</v>
       </c>
@@ -2208,7 +2211,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>141</v>
       </c>
@@ -2216,7 +2219,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>142</v>
       </c>
@@ -2224,7 +2227,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>143</v>
       </c>
@@ -2232,7 +2235,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>144</v>
       </c>
@@ -2240,7 +2243,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>145</v>
       </c>
@@ -2248,7 +2251,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>146</v>
       </c>
@@ -2256,7 +2259,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>147</v>
       </c>
@@ -2264,7 +2267,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>148</v>
       </c>
@@ -2272,7 +2275,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>149</v>
       </c>
@@ -2280,7 +2283,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>150</v>
       </c>
@@ -2288,7 +2291,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>151</v>
       </c>
@@ -2296,7 +2299,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>152</v>
       </c>
@@ -2304,7 +2307,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>153</v>
       </c>
@@ -2312,7 +2315,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>154</v>
       </c>
@@ -2320,7 +2323,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>155</v>
       </c>
@@ -2328,7 +2331,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>156</v>
       </c>
@@ -2336,7 +2339,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>157</v>
       </c>
@@ -2344,7 +2347,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>158</v>
       </c>
@@ -2352,7 +2355,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>160</v>
       </c>
@@ -2360,7 +2363,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>161</v>
       </c>
@@ -2368,7 +2371,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>162</v>
       </c>
@@ -2376,7 +2379,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>163</v>
       </c>
@@ -2384,7 +2387,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>164</v>
       </c>
@@ -2392,7 +2395,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>166</v>
       </c>
@@ -2400,7 +2403,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>168</v>
       </c>
@@ -2408,7 +2411,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>169</v>
       </c>
@@ -2416,7 +2419,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>170</v>
       </c>
@@ -2424,7 +2427,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>171</v>
       </c>
@@ -2432,7 +2435,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>172</v>
       </c>
@@ -2440,7 +2443,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>173</v>
       </c>
@@ -2448,7 +2451,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>174</v>
       </c>
@@ -2456,7 +2459,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>176</v>
       </c>
@@ -2464,7 +2467,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>177</v>
       </c>
@@ -2472,7 +2475,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>178</v>
       </c>
@@ -2480,7 +2483,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>179</v>
       </c>
@@ -2488,7 +2491,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>180</v>
       </c>
@@ -2496,7 +2499,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>181</v>
       </c>
@@ -2504,7 +2507,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>182</v>
       </c>
@@ -2512,7 +2515,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>183</v>
       </c>
@@ -2520,7 +2523,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>185</v>
       </c>
@@ -2528,7 +2531,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>185</v>
       </c>
@@ -2536,7 +2539,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>188</v>
       </c>
@@ -2544,7 +2547,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>188</v>
       </c>
@@ -2552,7 +2555,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>191</v>
       </c>
@@ -2560,7 +2563,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>191</v>
       </c>
@@ -2568,7 +2571,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>191</v>
       </c>
@@ -2576,7 +2579,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>195</v>
       </c>
@@ -2584,7 +2587,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>197</v>
       </c>
@@ -2592,7 +2595,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>199</v>
       </c>
@@ -2600,7 +2603,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>201</v>
       </c>
@@ -2608,7 +2611,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>203</v>
       </c>
@@ -2616,7 +2619,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>205</v>
       </c>
@@ -2624,7 +2627,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>206</v>
       </c>
@@ -2632,7 +2635,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>207</v>
       </c>
@@ -2640,7 +2643,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>208</v>
       </c>
@@ -2648,7 +2651,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>209</v>
       </c>
@@ -2656,7 +2659,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>210</v>
       </c>
@@ -2664,7 +2667,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>211</v>
       </c>
@@ -2672,7 +2675,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>211</v>
       </c>
@@ -2680,7 +2683,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>214</v>
       </c>
@@ -2688,7 +2691,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>215</v>
       </c>
@@ -2696,7 +2699,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>216</v>
       </c>
@@ -2704,7 +2707,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>217</v>
       </c>
@@ -2712,7 +2715,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>218</v>
       </c>
@@ -2720,7 +2723,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>219</v>
       </c>
@@ -2728,7 +2731,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>220</v>
       </c>
@@ -2736,7 +2739,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>221</v>
       </c>
@@ -2744,7 +2747,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>223</v>
       </c>
@@ -2752,7 +2755,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>224</v>
       </c>
@@ -2760,7 +2763,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>225</v>
       </c>
@@ -2768,7 +2771,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>227</v>
       </c>
@@ -2776,7 +2779,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>228</v>
       </c>
@@ -2784,7 +2787,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>229</v>
       </c>
@@ -2792,7 +2795,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>230</v>
       </c>
@@ -2800,7 +2803,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>232</v>
       </c>
@@ -2808,7 +2811,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>232</v>
       </c>
@@ -2816,7 +2819,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>234</v>
       </c>
@@ -2824,7 +2827,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>235</v>
       </c>
@@ -2832,7 +2835,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>236</v>
       </c>
@@ -2840,7 +2843,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>238</v>
       </c>
@@ -2848,7 +2851,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>240</v>
       </c>
@@ -2856,7 +2859,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>241</v>
       </c>
@@ -2864,7 +2867,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>242</v>
       </c>
@@ -2872,7 +2875,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>243</v>
       </c>
@@ -2880,7 +2883,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>226</v>
       </c>
@@ -2888,7 +2891,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>245</v>
       </c>
@@ -2896,7 +2899,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>247</v>
       </c>
@@ -2904,7 +2907,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>249</v>
       </c>
@@ -2912,7 +2915,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>251</v>
       </c>
@@ -2920,7 +2923,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>253</v>
       </c>
@@ -2928,7 +2931,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>255</v>
       </c>
@@ -2936,7 +2939,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>257</v>
       </c>
@@ -2944,7 +2947,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>186</v>
       </c>
@@ -2952,7 +2955,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>186</v>
       </c>
@@ -2960,7 +2963,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>186</v>
       </c>
@@ -2968,7 +2971,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>186</v>
       </c>
@@ -2976,7 +2979,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>186</v>
       </c>
@@ -2984,7 +2987,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>186</v>
       </c>
@@ -2992,7 +2995,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>186</v>
       </c>
@@ -3000,7 +3003,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>186</v>
       </c>
@@ -3008,7 +3011,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>186</v>
       </c>
@@ -3016,7 +3019,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>186</v>
       </c>
@@ -3024,7 +3027,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>186</v>
       </c>
@@ -3032,7 +3035,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>186</v>
       </c>
@@ -3040,7 +3043,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>186</v>
       </c>
@@ -3048,7 +3051,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>186</v>
       </c>
@@ -3056,7 +3059,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>186</v>
       </c>
@@ -3064,7 +3067,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>186</v>
       </c>
@@ -3072,7 +3075,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>275</v>
       </c>
@@ -3080,7 +3083,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>31</v>
       </c>
@@ -3088,7 +3091,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>31</v>
       </c>
@@ -3096,7 +3099,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>279</v>
       </c>
@@ -3104,7 +3107,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>281</v>
       </c>
@@ -3112,7 +3115,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>282</v>
       </c>
@@ -3120,7 +3123,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>159</v>
       </c>
@@ -3128,7 +3131,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>175</v>
       </c>
@@ -3136,7 +3139,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>184</v>
       </c>
@@ -3144,7 +3147,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>186</v>
       </c>
@@ -3152,7 +3155,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>284</v>
       </c>
@@ -3160,7 +3163,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>286</v>
       </c>
@@ -3168,7 +3171,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>287</v>
       </c>
@@ -3176,7 +3179,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>287</v>
       </c>
@@ -3184,7 +3187,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>290</v>
       </c>
@@ -3192,7 +3195,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>290</v>
       </c>
@@ -3200,7 +3203,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>293</v>
       </c>
@@ -3208,7 +3211,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>295</v>
       </c>
@@ -3216,7 +3219,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>297</v>
       </c>
@@ -3224,7 +3227,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>64</v>
       </c>
@@ -3241,106 +3244,160 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E21D01C-9876-4D06-B4E3-910DFDDF6C77}">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B2" sqref="B2:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>89</v>
+      </c>
+      <c r="B18">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/my_data.xlsx
+++ b/my_data.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20363"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hosgl\PycharmProjects\courseProgMethods\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\courseProgMethods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0418D209-48B2-49E9-AE82-DDEE375A80EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960C596B-C10A-48C3-B58D-83DAC3C71527}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Edges" sheetId="1" r:id="rId1"/>
     <sheet name="Nodes" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Edges!$A$1:$B$244</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Edges!$A$1:$B$249</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1287,17 +1287,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B249"/>
   <sheetViews>
-    <sheetView topLeftCell="A241" zoomScale="115" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B265" sqref="B265"/>
+    <sheetView tabSelected="1" topLeftCell="A226" zoomScale="115" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A249" sqref="A249"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>78</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>82</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>87</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>89</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>91</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>93</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>94</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>95</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>97</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>98</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>99</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>100</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>12</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>101</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>90</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>92</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>103</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>105</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>107</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>109</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>111</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>112</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>113</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>114</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>115</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>116</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>117</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>118</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>119</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>121</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>122</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>123</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>124</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>125</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>126</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>128</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>130</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>131</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>132</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>133</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>134</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>135</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>136</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>137</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>139</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>141</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>68</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>143</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>144</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>145</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>145</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>146</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>147</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>148</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>22</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>24</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>96</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>102</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>150</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>151</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>151</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>26</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>120</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>104</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>106</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>108</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>110</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>154</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>129</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>153</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>155</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>156</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>157</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>158</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>159</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>160</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>161</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>162</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>163</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>164</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>165</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>127</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>152</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>152</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>167</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>168</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>169</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>170</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>171</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>138</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>172</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>173</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>174</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>175</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>176</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>177</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>178</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>179</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>180</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>181</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>182</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>183</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>184</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>185</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>186</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>187</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>188</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>189</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>190</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>191</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>192</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>193</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>194</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>195</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>196</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>197</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>198</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>199</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>200</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>201</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>202</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>203</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>204</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>205</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>206</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>207</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>208</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>210</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>211</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>212</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>213</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>214</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>216</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>218</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>219</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>220</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>221</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>222</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>223</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>224</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>226</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>227</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>228</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>229</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>230</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>231</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>232</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>233</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>235</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>235</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>237</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>237</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>238</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>238</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>238</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>239</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>240</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>241</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>242</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>86</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>243</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>244</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>245</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>246</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>247</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>248</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>249</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>249</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>250</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>251</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>252</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>253</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>254</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>255</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>256</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>257</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>88</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>258</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>259</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>261</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>262</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>263</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>264</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>266</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>266</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>268</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>269</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>270</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>272</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>274</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>275</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>276</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>277</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>260</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>279</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>280</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>281</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>282</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>283</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>44</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>284</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>28</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>28</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>28</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>28</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>28</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>28</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>28</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>28</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>28</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>28</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>28</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>28</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>28</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>28</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>28</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>28</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>286</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>13</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>13</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>288</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>63</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>64</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>209</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>225</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>234</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>28</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>66</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>67</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>68</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>68</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>71</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>71</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>74</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>290</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>76</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A249" s="3" t="s">
         <v>82</v>
       </c>
@@ -3290,7 +3290,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B244" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:B249" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3300,17 +3300,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E21D01C-9876-4D06-B4E3-910DFDDF6C77}">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>83</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>285</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>50</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>51</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>52</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>287</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>60</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>61</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>45</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>46</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>54</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>32</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>33</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>34</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>35</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>291</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>40</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>140</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>72</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>73</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>69</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>77</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>14</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>70</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>38</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>21</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>11</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>37</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>286</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>29</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>62</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>15</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>16</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>17</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>18</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>55</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>47</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>42</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>65</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>48</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>27</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>56</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>49</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>57</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>58</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>59</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>36</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>25</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>76</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>31</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>82</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>236</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>292</v>
       </c>

--- a/my_data.xlsx
+++ b/my_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20363"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\courseProgMethods\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hosgl\PycharmProjects\courseProgMethods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960C596B-C10A-48C3-B58D-83DAC3C71527}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABB026D-C72C-4845-9598-CBA3D1E88887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="294">
   <si>
     <t>НО-1</t>
   </si>
@@ -908,6 +908,9 @@
   </si>
   <si>
     <t>к ул. Шубина, ул. Красноярская</t>
+  </si>
+  <si>
+    <t>source</t>
   </si>
 </sst>
 </file>
@@ -1287,17 +1290,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" zoomScale="115" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A249" sqref="A249"/>
+    <sheetView tabSelected="1" topLeftCell="A227" zoomScale="115" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F243" sqref="F243"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>78</v>
       </c>
@@ -1305,7 +1308,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>82</v>
       </c>
@@ -1313,7 +1316,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1321,7 +1324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1329,7 +1332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1337,7 +1340,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -1345,7 +1348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -1353,7 +1356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1361,7 +1364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -1369,7 +1372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -1377,7 +1380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -1385,7 +1388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -1393,7 +1396,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1401,7 +1404,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>87</v>
       </c>
@@ -1409,7 +1412,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
@@ -1417,7 +1420,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>89</v>
       </c>
@@ -1425,7 +1428,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>91</v>
       </c>
@@ -1433,7 +1436,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>93</v>
       </c>
@@ -1441,7 +1444,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>94</v>
       </c>
@@ -1449,7 +1452,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>95</v>
       </c>
@@ -1457,7 +1460,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>97</v>
       </c>
@@ -1465,7 +1468,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>98</v>
       </c>
@@ -1473,7 +1476,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>99</v>
       </c>
@@ -1481,7 +1484,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>100</v>
       </c>
@@ -1489,7 +1492,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>12</v>
       </c>
@@ -1497,7 +1500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>101</v>
       </c>
@@ -1505,7 +1508,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>90</v>
       </c>
@@ -1513,7 +1516,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>92</v>
       </c>
@@ -1521,7 +1524,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>103</v>
       </c>
@@ -1529,7 +1532,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>105</v>
       </c>
@@ -1537,7 +1540,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>107</v>
       </c>
@@ -1545,7 +1548,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>109</v>
       </c>
@@ -1553,7 +1556,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>111</v>
       </c>
@@ -1561,7 +1564,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>112</v>
       </c>
@@ -1569,7 +1572,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>113</v>
       </c>
@@ -1577,7 +1580,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>114</v>
       </c>
@@ -1585,7 +1588,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>115</v>
       </c>
@@ -1593,7 +1596,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>116</v>
       </c>
@@ -1601,7 +1604,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>117</v>
       </c>
@@ -1609,7 +1612,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>118</v>
       </c>
@@ -1617,7 +1620,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>119</v>
       </c>
@@ -1625,7 +1628,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>121</v>
       </c>
@@ -1633,7 +1636,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>122</v>
       </c>
@@ -1641,7 +1644,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>123</v>
       </c>
@@ -1649,7 +1652,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>124</v>
       </c>
@@ -1657,7 +1660,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>125</v>
       </c>
@@ -1665,7 +1668,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>126</v>
       </c>
@@ -1673,7 +1676,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>128</v>
       </c>
@@ -1681,7 +1684,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>130</v>
       </c>
@@ -1689,7 +1692,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>131</v>
       </c>
@@ -1697,7 +1700,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>132</v>
       </c>
@@ -1705,7 +1708,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>133</v>
       </c>
@@ -1713,7 +1716,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>134</v>
       </c>
@@ -1721,7 +1724,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>135</v>
       </c>
@@ -1729,7 +1732,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>136</v>
       </c>
@@ -1737,7 +1740,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>137</v>
       </c>
@@ -1745,7 +1748,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>139</v>
       </c>
@@ -1753,7 +1756,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>141</v>
       </c>
@@ -1761,7 +1764,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>68</v>
       </c>
@@ -1769,7 +1772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>143</v>
       </c>
@@ -1777,7 +1780,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>144</v>
       </c>
@@ -1785,7 +1788,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>145</v>
       </c>
@@ -1793,7 +1796,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>145</v>
       </c>
@@ -1801,7 +1804,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>146</v>
       </c>
@@ -1809,7 +1812,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>147</v>
       </c>
@@ -1817,7 +1820,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>148</v>
       </c>
@@ -1825,7 +1828,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>22</v>
       </c>
@@ -1833,7 +1836,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>24</v>
       </c>
@@ -1841,7 +1844,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>96</v>
       </c>
@@ -1849,7 +1852,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>102</v>
       </c>
@@ -1857,7 +1860,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>150</v>
       </c>
@@ -1865,7 +1868,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>151</v>
       </c>
@@ -1873,7 +1876,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>151</v>
       </c>
@@ -1881,7 +1884,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>26</v>
       </c>
@@ -1889,7 +1892,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>120</v>
       </c>
@@ -1897,7 +1900,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>104</v>
       </c>
@@ -1905,7 +1908,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>106</v>
       </c>
@@ -1913,7 +1916,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>108</v>
       </c>
@@ -1921,7 +1924,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>110</v>
       </c>
@@ -1929,7 +1932,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>154</v>
       </c>
@@ -1937,7 +1940,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>129</v>
       </c>
@@ -1945,7 +1948,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>153</v>
       </c>
@@ -1953,7 +1956,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>155</v>
       </c>
@@ -1961,7 +1964,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>156</v>
       </c>
@@ -1969,7 +1972,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>157</v>
       </c>
@@ -1977,7 +1980,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>158</v>
       </c>
@@ -1985,7 +1988,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>159</v>
       </c>
@@ -1993,7 +1996,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>160</v>
       </c>
@@ -2001,7 +2004,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>161</v>
       </c>
@@ -2009,7 +2012,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>162</v>
       </c>
@@ -2017,7 +2020,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>163</v>
       </c>
@@ -2025,7 +2028,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>164</v>
       </c>
@@ -2033,7 +2036,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>165</v>
       </c>
@@ -2041,7 +2044,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>127</v>
       </c>
@@ -2049,7 +2052,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>152</v>
       </c>
@@ -2057,7 +2060,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>152</v>
       </c>
@@ -2065,7 +2068,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>167</v>
       </c>
@@ -2073,7 +2076,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>168</v>
       </c>
@@ -2081,7 +2084,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>169</v>
       </c>
@@ -2089,7 +2092,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>170</v>
       </c>
@@ -2097,7 +2100,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>171</v>
       </c>
@@ -2105,7 +2108,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>138</v>
       </c>
@@ -2113,7 +2116,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>172</v>
       </c>
@@ -2121,7 +2124,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>173</v>
       </c>
@@ -2129,7 +2132,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>174</v>
       </c>
@@ -2137,7 +2140,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>175</v>
       </c>
@@ -2145,7 +2148,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>176</v>
       </c>
@@ -2153,7 +2156,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>177</v>
       </c>
@@ -2161,7 +2164,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>178</v>
       </c>
@@ -2169,7 +2172,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>179</v>
       </c>
@@ -2177,7 +2180,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>180</v>
       </c>
@@ -2185,7 +2188,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>181</v>
       </c>
@@ -2193,7 +2196,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>182</v>
       </c>
@@ -2201,7 +2204,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>183</v>
       </c>
@@ -2209,7 +2212,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>184</v>
       </c>
@@ -2217,7 +2220,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>185</v>
       </c>
@@ -2225,7 +2228,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>186</v>
       </c>
@@ -2233,7 +2236,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>187</v>
       </c>
@@ -2241,7 +2244,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>188</v>
       </c>
@@ -2249,7 +2252,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>189</v>
       </c>
@@ -2257,7 +2260,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>190</v>
       </c>
@@ -2265,7 +2268,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>191</v>
       </c>
@@ -2273,7 +2276,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>192</v>
       </c>
@@ -2281,7 +2284,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>193</v>
       </c>
@@ -2289,7 +2292,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>194</v>
       </c>
@@ -2297,7 +2300,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>195</v>
       </c>
@@ -2305,7 +2308,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>196</v>
       </c>
@@ -2313,7 +2316,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>197</v>
       </c>
@@ -2321,7 +2324,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>198</v>
       </c>
@@ -2329,7 +2332,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>199</v>
       </c>
@@ -2337,7 +2340,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>200</v>
       </c>
@@ -2345,7 +2348,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>201</v>
       </c>
@@ -2353,7 +2356,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>202</v>
       </c>
@@ -2361,7 +2364,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>203</v>
       </c>
@@ -2369,7 +2372,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>204</v>
       </c>
@@ -2377,7 +2380,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>205</v>
       </c>
@@ -2385,7 +2388,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>206</v>
       </c>
@@ -2393,7 +2396,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>207</v>
       </c>
@@ -2401,7 +2404,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>208</v>
       </c>
@@ -2409,7 +2412,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>210</v>
       </c>
@@ -2417,7 +2420,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>211</v>
       </c>
@@ -2425,7 +2428,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>212</v>
       </c>
@@ -2433,7 +2436,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>213</v>
       </c>
@@ -2441,7 +2444,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>214</v>
       </c>
@@ -2449,7 +2452,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>216</v>
       </c>
@@ -2457,7 +2460,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>218</v>
       </c>
@@ -2465,7 +2468,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>219</v>
       </c>
@@ -2473,7 +2476,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>220</v>
       </c>
@@ -2481,7 +2484,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>221</v>
       </c>
@@ -2489,7 +2492,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>222</v>
       </c>
@@ -2497,7 +2500,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>223</v>
       </c>
@@ -2505,7 +2508,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>224</v>
       </c>
@@ -2513,7 +2516,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>226</v>
       </c>
@@ -2521,7 +2524,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>227</v>
       </c>
@@ -2529,7 +2532,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>228</v>
       </c>
@@ -2537,7 +2540,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>229</v>
       </c>
@@ -2545,7 +2548,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>230</v>
       </c>
@@ -2553,7 +2556,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>231</v>
       </c>
@@ -2561,7 +2564,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>232</v>
       </c>
@@ -2569,7 +2572,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>233</v>
       </c>
@@ -2577,7 +2580,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>235</v>
       </c>
@@ -2585,7 +2588,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>235</v>
       </c>
@@ -2593,7 +2596,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>237</v>
       </c>
@@ -2601,7 +2604,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>237</v>
       </c>
@@ -2609,7 +2612,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>238</v>
       </c>
@@ -2617,7 +2620,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>238</v>
       </c>
@@ -2625,7 +2628,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>238</v>
       </c>
@@ -2633,7 +2636,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>239</v>
       </c>
@@ -2641,7 +2644,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>240</v>
       </c>
@@ -2649,7 +2652,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>241</v>
       </c>
@@ -2657,7 +2660,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>242</v>
       </c>
@@ -2665,7 +2668,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>86</v>
       </c>
@@ -2673,7 +2676,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>243</v>
       </c>
@@ -2681,7 +2684,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>244</v>
       </c>
@@ -2689,7 +2692,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>245</v>
       </c>
@@ -2697,7 +2700,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>246</v>
       </c>
@@ -2705,7 +2708,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>247</v>
       </c>
@@ -2713,7 +2716,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>248</v>
       </c>
@@ -2721,7 +2724,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>249</v>
       </c>
@@ -2729,7 +2732,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>249</v>
       </c>
@@ -2737,7 +2740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>250</v>
       </c>
@@ -2745,7 +2748,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>251</v>
       </c>
@@ -2753,7 +2756,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>252</v>
       </c>
@@ -2761,7 +2764,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>253</v>
       </c>
@@ -2769,7 +2772,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>254</v>
       </c>
@@ -2777,7 +2780,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>255</v>
       </c>
@@ -2785,7 +2788,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>256</v>
       </c>
@@ -2793,7 +2796,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>257</v>
       </c>
@@ -2801,7 +2804,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>88</v>
       </c>
@@ -2809,7 +2812,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>258</v>
       </c>
@@ -2817,7 +2820,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>259</v>
       </c>
@@ -2825,7 +2828,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>261</v>
       </c>
@@ -2833,7 +2836,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>262</v>
       </c>
@@ -2841,7 +2844,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>263</v>
       </c>
@@ -2849,7 +2852,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>264</v>
       </c>
@@ -2857,7 +2860,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>266</v>
       </c>
@@ -2865,7 +2868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>266</v>
       </c>
@@ -2873,7 +2876,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>268</v>
       </c>
@@ -2881,7 +2884,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>269</v>
       </c>
@@ -2889,7 +2892,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>270</v>
       </c>
@@ -2897,7 +2900,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>272</v>
       </c>
@@ -2905,7 +2908,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>274</v>
       </c>
@@ -2913,7 +2916,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>275</v>
       </c>
@@ -2921,7 +2924,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>276</v>
       </c>
@@ -2929,7 +2932,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>277</v>
       </c>
@@ -2937,7 +2940,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>260</v>
       </c>
@@ -2945,7 +2948,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>279</v>
       </c>
@@ -2953,7 +2956,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>280</v>
       </c>
@@ -2961,7 +2964,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>281</v>
       </c>
@@ -2969,7 +2972,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>282</v>
       </c>
@@ -2977,7 +2980,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>283</v>
       </c>
@@ -2985,7 +2988,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>44</v>
       </c>
@@ -2993,7 +2996,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>284</v>
       </c>
@@ -3001,7 +3004,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>28</v>
       </c>
@@ -3009,7 +3012,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>28</v>
       </c>
@@ -3017,7 +3020,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>28</v>
       </c>
@@ -3025,7 +3028,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>28</v>
       </c>
@@ -3033,7 +3036,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>28</v>
       </c>
@@ -3041,7 +3044,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>28</v>
       </c>
@@ -3049,7 +3052,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>28</v>
       </c>
@@ -3057,7 +3060,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>28</v>
       </c>
@@ -3065,7 +3068,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>28</v>
       </c>
@@ -3073,7 +3076,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>28</v>
       </c>
@@ -3081,7 +3084,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>28</v>
       </c>
@@ -3089,7 +3092,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>28</v>
       </c>
@@ -3097,7 +3100,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>28</v>
       </c>
@@ -3105,7 +3108,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>28</v>
       </c>
@@ -3113,7 +3116,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>28</v>
       </c>
@@ -3121,7 +3124,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>28</v>
       </c>
@@ -3129,7 +3132,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>286</v>
       </c>
@@ -3137,7 +3140,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>13</v>
       </c>
@@ -3145,7 +3148,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>13</v>
       </c>
@@ -3153,7 +3156,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>288</v>
       </c>
@@ -3161,7 +3164,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>63</v>
       </c>
@@ -3169,7 +3172,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>64</v>
       </c>
@@ -3177,7 +3180,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>209</v>
       </c>
@@ -3185,7 +3188,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>225</v>
       </c>
@@ -3193,7 +3196,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>234</v>
       </c>
@@ -3201,7 +3204,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>28</v>
       </c>
@@ -3209,7 +3212,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>66</v>
       </c>
@@ -3217,7 +3220,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>67</v>
       </c>
@@ -3225,7 +3228,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>68</v>
       </c>
@@ -3233,7 +3236,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>68</v>
       </c>
@@ -3241,7 +3244,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>71</v>
       </c>
@@ -3249,7 +3252,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>71</v>
       </c>
@@ -3257,7 +3260,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>74</v>
       </c>
@@ -3265,7 +3268,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>290</v>
       </c>
@@ -3273,7 +3276,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>76</v>
       </c>
@@ -3281,7 +3284,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
         <v>82</v>
       </c>
@@ -3298,27 +3301,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E21D01C-9876-4D06-B4E3-910DFDDF6C77}">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>80</v>
       </c>
       <c r="B1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>83</v>
       </c>
@@ -3326,7 +3332,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
@@ -3334,7 +3340,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>285</v>
       </c>
@@ -3342,7 +3348,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>50</v>
       </c>
@@ -3350,7 +3356,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>51</v>
       </c>
@@ -3358,7 +3364,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
@@ -3366,7 +3372,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>52</v>
       </c>
@@ -3374,7 +3380,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>287</v>
       </c>
@@ -3382,7 +3388,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>60</v>
       </c>
@@ -3390,7 +3396,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
@@ -3398,7 +3404,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>61</v>
       </c>
@@ -3406,7 +3412,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>45</v>
       </c>
@@ -3414,7 +3420,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>46</v>
       </c>
@@ -3422,7 +3428,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>54</v>
       </c>
@@ -3430,7 +3436,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>32</v>
       </c>
@@ -3438,7 +3444,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>33</v>
       </c>
@@ -3446,7 +3452,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>34</v>
       </c>
@@ -3454,7 +3460,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>35</v>
       </c>
@@ -3462,7 +3468,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>291</v>
       </c>
@@ -3470,7 +3476,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>40</v>
       </c>
@@ -3478,7 +3484,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>140</v>
       </c>
@@ -3486,7 +3492,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>72</v>
       </c>
@@ -3494,7 +3500,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>73</v>
       </c>
@@ -3502,7 +3508,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>69</v>
       </c>
@@ -3510,7 +3516,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>77</v>
       </c>
@@ -3518,7 +3524,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>14</v>
       </c>
@@ -3526,7 +3532,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>70</v>
       </c>
@@ -3534,7 +3540,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>38</v>
       </c>
@@ -3542,7 +3548,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>21</v>
       </c>
@@ -3550,7 +3556,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>11</v>
       </c>
@@ -3558,7 +3564,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>37</v>
       </c>
@@ -3566,7 +3572,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>286</v>
       </c>
@@ -3574,7 +3580,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>29</v>
       </c>
@@ -3582,7 +3588,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>62</v>
       </c>
@@ -3590,7 +3596,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>15</v>
       </c>
@@ -3598,7 +3604,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>16</v>
       </c>
@@ -3606,7 +3612,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>17</v>
       </c>
@@ -3614,7 +3620,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>18</v>
       </c>
@@ -3622,7 +3628,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>55</v>
       </c>
@@ -3630,7 +3636,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>47</v>
       </c>
@@ -3638,7 +3644,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>42</v>
       </c>
@@ -3646,7 +3652,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>65</v>
       </c>
@@ -3654,7 +3660,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>48</v>
       </c>
@@ -3662,7 +3668,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>27</v>
       </c>
@@ -3670,7 +3676,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>56</v>
       </c>
@@ -3678,7 +3684,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>49</v>
       </c>
@@ -3686,7 +3692,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>57</v>
       </c>
@@ -3694,7 +3700,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>58</v>
       </c>
@@ -3702,7 +3708,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>59</v>
       </c>
@@ -3710,7 +3716,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>36</v>
       </c>
@@ -3718,7 +3724,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>25</v>
       </c>
@@ -3726,7 +3732,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>76</v>
       </c>
@@ -3734,7 +3740,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>31</v>
       </c>
@@ -3742,7 +3748,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>82</v>
       </c>
@@ -3750,7 +3756,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>236</v>
       </c>
@@ -3758,12 +3764,20 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>292</v>
       </c>
       <c r="B57">
         <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/my_data.xlsx
+++ b/my_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20363"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hosgl\PycharmProjects\courseProgMethods\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\courseProgMethods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABB026D-C72C-4845-9598-CBA3D1E88887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A2409D-84CC-4EE9-91E4-8B5FB7AD1EEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Edges" sheetId="1" r:id="rId1"/>
@@ -1290,17 +1290,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A227" zoomScale="115" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F243" sqref="F243"/>
+    <sheetView zoomScale="115" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>78</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>82</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>87</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>89</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>91</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>93</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>94</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>95</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>97</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>98</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>99</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>100</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>12</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>101</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>90</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>92</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>103</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>105</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>107</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>109</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>111</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>112</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>113</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>114</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>115</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>116</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>117</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>118</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>119</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>121</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>122</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>123</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>124</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>125</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>126</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>128</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>130</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>131</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>132</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>133</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>134</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>135</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>136</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>137</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>139</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>141</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>68</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>143</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>144</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>145</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>145</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>146</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>147</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>148</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>22</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>24</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>96</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>102</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>150</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>151</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>151</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>26</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>120</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>104</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>106</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>108</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>110</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>154</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>129</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>153</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>155</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>156</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>157</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>158</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>159</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>160</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>161</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>162</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>163</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>164</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>165</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>127</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>152</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>152</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>167</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>168</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>169</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>170</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>171</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>138</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>172</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>173</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>174</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>175</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>176</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>177</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>178</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>179</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>180</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>181</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>182</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>183</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>184</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>185</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>186</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>187</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>188</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>189</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>190</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>191</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>192</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>193</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>194</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>195</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>196</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>197</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>198</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>199</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>200</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>201</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>202</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>203</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>204</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>205</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>206</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>207</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>208</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>210</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>211</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>212</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>213</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>214</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>216</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>218</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>219</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>220</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>221</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>222</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>223</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>224</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>226</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>227</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>228</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>229</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>230</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>231</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>232</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>233</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>235</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>235</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>237</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>237</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>238</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>238</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>238</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>239</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>240</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>241</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>242</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>86</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>243</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>244</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>245</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>246</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>247</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>248</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>249</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>249</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>250</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>251</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>252</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>253</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>254</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>255</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>256</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>257</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>88</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>258</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>259</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>261</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>262</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>263</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>264</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>266</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>266</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>268</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>269</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>270</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>272</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>274</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>275</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>276</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>277</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>260</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>279</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>280</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>281</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>282</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>283</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>44</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>284</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>28</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>28</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>28</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>28</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>28</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>28</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>28</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>28</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>28</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>28</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>28</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>28</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>28</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>28</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>28</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>28</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>286</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>13</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>13</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>288</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>63</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>64</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>209</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>225</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>234</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>28</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>66</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>67</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>68</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>68</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>71</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>71</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>74</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>290</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>76</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A249" s="3" t="s">
         <v>82</v>
       </c>
@@ -3303,17 +3303,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E21D01C-9876-4D06-B4E3-910DFDDF6C77}">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>83</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>285</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>50</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>51</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>52</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>287</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>60</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>61</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>45</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>46</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>54</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>32</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>33</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>34</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>35</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>291</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>40</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>140</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>72</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>73</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>69</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>77</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>14</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>70</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>38</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>21</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>11</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>37</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>286</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>29</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>62</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>15</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>16</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>17</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>18</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>55</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>47</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>42</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>65</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>48</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>27</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>56</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>49</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>57</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>58</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>59</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>36</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>25</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>76</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>31</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>82</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>236</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>292</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>28</v>
       </c>
